--- a/views/compras/relatorios/relatorio_fornecedores_2025.xlsx
+++ b/views/compras/relatorios/relatorio_fornecedores_2025.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA PARQUE - 2025</t>
   </si>
@@ -72,6 +72,15 @@
     <t>TOTAL AQUISICAO:</t>
   </si>
   <si>
+    <t>EQUIPAMENTOS:</t>
+  </si>
+  <si>
+    <t>Apramed Ind E Com De Aprelhos Medicos Ltda</t>
+  </si>
+  <si>
+    <t>TOTAL EQUIPAMENTOS:</t>
+  </si>
+  <si>
     <t>LENTE DE CONTATO:</t>
   </si>
   <si>
@@ -183,6 +192,9 @@
     <t>Kalunga Sa</t>
   </si>
   <si>
+    <t>Mei Ley Bazar Presentes</t>
+  </si>
+  <si>
     <t>Mm Service</t>
   </si>
   <si>
@@ -198,6 +210,9 @@
     <t>Apta Hospitalar Dist Mat Medicos Ltda</t>
   </si>
   <si>
+    <t>Ballke Produtos Hospitalares Ltda</t>
+  </si>
+  <si>
     <t>Bem Barato Variedades</t>
   </si>
   <si>
@@ -222,6 +237,9 @@
     <t>Eye Pharma Ltda</t>
   </si>
   <si>
+    <t>Funare Machado Prod E Serv Hospitalares</t>
+  </si>
+  <si>
     <t>Funare Machado Produtos E Servicos Hospita</t>
   </si>
   <si>
@@ -265,6 +283,9 @@
   </si>
   <si>
     <t>Raami Comercio De Produtos De Limpeza Ltda</t>
+  </si>
+  <si>
+    <t>Sales Distribuidora Ltda</t>
   </si>
   <si>
     <t>Sj Comercio De Rpodutos D Higiene Ltda</t>
@@ -946,10 +967,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B199" sqref="B199"/>
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -962,7 +983,7 @@
     <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="12.854" bestFit="true" customWidth="true" style="0"/>
@@ -1118,186 +1139,166 @@
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8">
-        <v>1440.74</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1673.92</v>
-      </c>
-      <c r="D7" s="8">
-        <v>343.03</v>
-      </c>
-      <c r="E7" s="8">
-        <v>320.52</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1748.45</v>
-      </c>
-      <c r="G7" s="8">
-        <v>237.36</v>
-      </c>
-      <c r="H7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>34000.0</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="5"/>
       <c r="N7" s="11">
-        <v>5764.02</v>
+        <v>34000.0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>547.59</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="11">
-        <v>547.59</v>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>34000.0</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="12">
+        <v>34000.0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
-        <v>1783.75</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8">
-        <v>1373.68</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1824.36</v>
-      </c>
-      <c r="F9" s="8">
-        <v>964.77</v>
-      </c>
-      <c r="G9" s="8">
-        <v>597.34</v>
-      </c>
-      <c r="H9" s="8">
-        <v>318.3</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="11">
-        <v>6862.2</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="8">
+        <v>1440.74</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1673.92</v>
+      </c>
+      <c r="D10" s="8">
+        <v>343.03</v>
+      </c>
+      <c r="E10" s="8">
+        <v>320.52</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1748.45</v>
+      </c>
       <c r="G10" s="8">
-        <v>253.92</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>237.36</v>
+      </c>
+      <c r="H10" s="8">
+        <v>761.65</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="5"/>
       <c r="N10" s="11">
-        <v>253.92</v>
+        <v>6525.67</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8">
-        <v>2005.56</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4477.34</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8118.21</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1067.04</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1557.75</v>
-      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="8">
-        <v>5683.99</v>
-      </c>
-      <c r="H11" s="8">
-        <v>851.48</v>
-      </c>
+        <v>547.59</v>
+      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="5"/>
       <c r="N11" s="11">
-        <v>23761.37</v>
+        <v>547.59</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8">
-        <v>435.0</v>
-      </c>
+      <c r="B12" s="8">
+        <v>1783.75</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="8">
-        <v>252.0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+        <v>1373.68</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1824.36</v>
+      </c>
+      <c r="F12" s="8">
+        <v>964.77</v>
+      </c>
+      <c r="G12" s="8">
+        <v>597.34</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1705.52</v>
+      </c>
+      <c r="I12" s="8">
+        <v>343.42</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="5"/>
       <c r="N12" s="11">
-        <v>687.0</v>
+        <v>8592.84</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8">
-        <v>3100.0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2520.0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>240.0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>480.0</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>253.92</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1305,7 +1306,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="5"/>
       <c r="N13" s="11">
-        <v>6340.0</v>
+        <v>253.92</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1313,201 +1314,215 @@
         <v>26</v>
       </c>
       <c r="B14" s="8">
-        <v>3553.84</v>
+        <v>2005.56</v>
       </c>
       <c r="C14" s="8">
-        <v>5959.41</v>
+        <v>4477.34</v>
       </c>
       <c r="D14" s="8">
-        <v>5304.84</v>
+        <v>8118.21</v>
       </c>
       <c r="E14" s="8">
-        <v>2032.98</v>
+        <v>1067.04</v>
       </c>
       <c r="F14" s="8">
-        <v>2981.71</v>
+        <v>1557.75</v>
       </c>
       <c r="G14" s="8">
-        <v>6150.92</v>
+        <v>5683.99</v>
       </c>
       <c r="H14" s="8">
-        <v>1336.81</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>2508.17</v>
+      </c>
+      <c r="I14" s="8">
+        <v>431.13</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="5"/>
       <c r="N14" s="11">
-        <v>27320.51</v>
+        <v>25849.19</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9">
-        <v>11883.89</v>
-      </c>
-      <c r="C15" s="9">
-        <v>15065.67</v>
-      </c>
-      <c r="D15" s="9">
-        <v>15631.76</v>
-      </c>
-      <c r="E15" s="9">
-        <v>5724.9</v>
-      </c>
-      <c r="F15" s="9">
-        <v>7252.68</v>
-      </c>
-      <c r="G15" s="9">
-        <v>13471.12</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2506.59</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="12">
-        <v>71536.61</v>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
+        <v>435.0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>252.0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="11">
+        <v>687.0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="B16" s="8">
+        <v>3100.0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2520.0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>240.0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>480.0</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="11">
+        <v>6340.0</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="8">
+        <v>3553.84</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5959.41</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5304.84</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2032.98</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2981.71</v>
+      </c>
       <c r="G17" s="8">
-        <v>1442.0</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+        <v>6150.92</v>
+      </c>
+      <c r="H17" s="8">
+        <v>6354.59</v>
+      </c>
+      <c r="I17" s="8">
+        <v>994.42</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="5"/>
       <c r="N17" s="11">
-        <v>1442.0</v>
+        <v>33332.71</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8">
-        <v>20000.0</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
-        <v>19762.17</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="11">
-        <v>39762.17</v>
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9">
+        <v>11883.89</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15065.67</v>
+      </c>
+      <c r="D18" s="9">
+        <v>15631.76</v>
+      </c>
+      <c r="E18" s="9">
+        <v>5724.9</v>
+      </c>
+      <c r="F18" s="9">
+        <v>7252.68</v>
+      </c>
+      <c r="G18" s="9">
+        <v>13471.12</v>
+      </c>
+      <c r="H18" s="9">
+        <v>11329.93</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1768.97</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12">
+        <v>82128.92</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3250.0</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1120.0</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8">
-        <v>665.01</v>
-      </c>
-      <c r="F19" s="8">
-        <v>140.0</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8">
-        <v>735.0</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="11">
-        <v>5910.01</v>
-      </c>
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="8">
-        <v>6810.99</v>
-      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
-        <v>1312.0</v>
-      </c>
+      <c r="G20" s="8">
+        <v>1442.0</v>
+      </c>
+      <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="5"/>
       <c r="N20" s="11">
-        <v>8122.99</v>
+        <v>1442.0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="8">
-        <v>646.76</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="8">
-        <v>2227.27</v>
+        <v>20000.0</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8">
+        <v>19762.17</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1515,31 +1530,39 @@
       <c r="L21" s="8"/>
       <c r="M21" s="5"/>
       <c r="N21" s="11">
-        <v>2874.03</v>
+        <v>39762.17</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="8">
+        <v>3250.0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1120.0</v>
+      </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
-        <v>2350.0</v>
-      </c>
+      <c r="E22" s="8">
+        <v>665.01</v>
+      </c>
+      <c r="F22" s="8">
+        <v>140.0</v>
+      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="8">
-        <v>900.0</v>
-      </c>
-      <c r="I22" s="8"/>
+        <v>735.0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>735.0</v>
+      </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="5"/>
       <c r="N22" s="11">
-        <v>3250.0</v>
+        <v>6645.01</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1547,40 +1570,38 @@
         <v>34</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8">
+        <v>6810.99</v>
+      </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="8">
-        <v>29999.75</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8">
+        <v>1312.0</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="5"/>
       <c r="N23" s="11">
-        <v>29999.75</v>
+        <v>8122.99</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8">
+        <v>646.76</v>
+      </c>
       <c r="C24" s="8">
-        <v>634.0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>250.0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>280.0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>536.0</v>
-      </c>
+        <v>2227.27</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1589,77 +1610,73 @@
       <c r="L24" s="8"/>
       <c r="M24" s="5"/>
       <c r="N24" s="11">
-        <v>1700.0</v>
+        <v>2874.03</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="9">
-        <v>3896.76</v>
-      </c>
-      <c r="C25" s="9">
-        <v>30792.26</v>
-      </c>
-      <c r="D25" s="9">
-        <v>250.0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>30944.76</v>
-      </c>
-      <c r="F25" s="9">
-        <v>676.0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>23554.17</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2947.0</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="12">
-        <v>93060.95</v>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
+        <v>2350.0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>900.0</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="11">
+        <v>3250.0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>29999.75</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="11">
+        <v>29999.75</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="8">
+        <v>634.0</v>
+      </c>
       <c r="D27" s="8">
-        <v>270.0</v>
+        <v>250.0</v>
       </c>
       <c r="E27" s="8">
-        <v>35.0</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8">
-        <v>108.35</v>
-      </c>
+        <v>280.0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>536.0</v>
+      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -1667,54 +1684,62 @@
       <c r="L27" s="8"/>
       <c r="M27" s="5"/>
       <c r="N27" s="11">
-        <v>413.35</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8">
-        <v>105.0</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="11">
-        <v>105.0</v>
+      <c r="B28" s="9">
+        <v>3896.76</v>
+      </c>
+      <c r="C28" s="9">
+        <v>30792.26</v>
+      </c>
+      <c r="D28" s="9">
+        <v>250.0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>30944.76</v>
+      </c>
+      <c r="F28" s="9">
+        <v>676.0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>23554.17</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2947.0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>735.0</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12">
+        <v>93795.95</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8">
-        <v>560.0</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8">
-        <v>1050.0</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="11">
-        <v>1610.0</v>
-      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="5" t="s">
@@ -1722,12 +1747,16 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
-        <v>293.0</v>
-      </c>
-      <c r="G30" s="8"/>
+      <c r="D30" s="8">
+        <v>270.0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <v>108.35</v>
+      </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1735,7 +1764,7 @@
       <c r="L30" s="8"/>
       <c r="M30" s="5"/>
       <c r="N30" s="11">
-        <v>293.0</v>
+        <v>413.35</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1745,11 +1774,9 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8">
-        <v>887.0</v>
-      </c>
+      <c r="E31" s="8"/>
       <c r="F31" s="8">
-        <v>1480.95</v>
+        <v>105.0</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -1759,7 +1786,7 @@
       <c r="L31" s="8"/>
       <c r="M31" s="5"/>
       <c r="N31" s="11">
-        <v>2367.95</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1769,11 +1796,13 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="8">
+        <v>560.0</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8">
-        <v>525.0</v>
+        <v>1050.0</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1781,56 +1810,54 @@
       <c r="L32" s="8"/>
       <c r="M32" s="5"/>
       <c r="N32" s="11">
-        <v>525.0</v>
+        <v>1610.0</v>
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9">
-        <v>270.0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1482.0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>1878.95</v>
-      </c>
-      <c r="G33" s="9">
-        <v>108.35</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1575.0</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="12">
-        <v>5314.3</v>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8">
+        <v>293.0</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="11">
+        <v>293.0</v>
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8">
+        <v>887.0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1480.95</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="11">
+        <v>2367.95</v>
+      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="5" t="s">
@@ -1841,89 +1868,87 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="8">
-        <v>195.49</v>
-      </c>
-      <c r="H35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
+        <v>525.0</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="5"/>
       <c r="N35" s="11">
-        <v>195.49</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8">
-        <v>210.0</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="11">
-        <v>210.0</v>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9">
+        <v>270.0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1482.0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1878.95</v>
+      </c>
+      <c r="G36" s="9">
+        <v>108.35</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1575.0</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="12">
+        <v>5314.3</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="11">
-        <v>5.2</v>
-      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="8">
-        <v>698.0</v>
-      </c>
+      <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8">
-        <v>15.59</v>
-      </c>
+      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8">
-        <v>78.67</v>
-      </c>
-      <c r="H38" s="8">
-        <v>439.99</v>
-      </c>
+        <v>195.49</v>
+      </c>
+      <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="5"/>
       <c r="N38" s="11">
-        <v>1232.25</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -1931,11 +1956,11 @@
         <v>50</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8">
+        <v>210.0</v>
+      </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="8">
-        <v>431.18</v>
-      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -1945,343 +1970,359 @@
       <c r="L39" s="8"/>
       <c r="M39" s="5"/>
       <c r="N39" s="11">
-        <v>431.18</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="8">
-        <v>490.0</v>
-      </c>
+      <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8">
+        <v>5.2</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="H40" s="8">
+        <v>62.4</v>
+      </c>
+      <c r="I40" s="8">
+        <v>48.9</v>
+      </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="5"/>
       <c r="N40" s="11">
-        <v>490.0</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="9">
-        <v>1188.0</v>
-      </c>
-      <c r="C41" s="9">
-        <v>210.0</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>451.97</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9">
-        <v>274.16</v>
-      </c>
-      <c r="H41" s="9">
+      <c r="B41" s="8">
+        <v>698.0</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8">
+        <v>15.59</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
+        <v>78.67</v>
+      </c>
+      <c r="H41" s="8">
         <v>439.99</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="12">
-        <v>2564.12</v>
+      <c r="I41" s="8">
+        <v>399.0</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="11">
+        <v>1631.25</v>
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8">
+        <v>431.18</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="11">
+        <v>431.18</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8">
-        <v>1789.6</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1290.4</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1837.16</v>
-      </c>
-      <c r="F43" s="8">
-        <v>1614.39</v>
-      </c>
+      <c r="B43" s="8">
+        <v>490.0</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="8">
-        <v>1375.79</v>
-      </c>
+      <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="5"/>
       <c r="N43" s="11">
-        <v>7907.34</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8">
-        <v>212.66</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="11">
-        <v>212.66</v>
+      <c r="A44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1188.0</v>
+      </c>
+      <c r="C44" s="9">
+        <v>210.0</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9">
+        <v>451.97</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9">
+        <v>274.16</v>
+      </c>
+      <c r="H44" s="9">
+        <v>502.39</v>
+      </c>
+      <c r="I44" s="9">
+        <v>447.9</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="12">
+        <v>3074.42</v>
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8">
-        <v>260.0</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="11">
-        <v>260.0</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8">
-        <v>2192.0</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+        <v>1789.6</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1290.4</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1837.16</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1614.39</v>
+      </c>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8">
+        <v>1375.79</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="5"/>
       <c r="N46" s="11">
-        <v>2192.0</v>
+        <v>7907.34</v>
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9">
-        <v>3981.6</v>
-      </c>
-      <c r="D47" s="9">
-        <v>1550.4</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1837.16</v>
-      </c>
-      <c r="F47" s="9">
-        <v>1614.39</v>
-      </c>
-      <c r="G47" s="9">
+      <c r="A47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8">
+        <v>47.4</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="11">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8">
         <v>212.66</v>
       </c>
-      <c r="H47" s="9">
-        <v>1375.79</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="12">
-        <v>10572.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="11">
+        <v>212.66</v>
+      </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8">
-        <v>194.9</v>
-      </c>
-      <c r="D49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8">
+        <v>260.0</v>
+      </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="8">
-        <v>4033.96</v>
-      </c>
-      <c r="G49" s="8">
-        <v>161.0</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1125.34</v>
-      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="5"/>
       <c r="N49" s="11">
-        <v>5515.2</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8">
-        <v>644.05</v>
+        <v>2192.0</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="8">
-        <v>981.99</v>
-      </c>
-      <c r="H50" s="8">
-        <v>505.72</v>
-      </c>
-      <c r="I50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8">
+        <v>1264.0</v>
+      </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="5"/>
       <c r="N50" s="11">
-        <v>2131.76</v>
+        <v>3456.0</v>
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="8">
-        <v>219.8</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="11">
-        <v>219.8</v>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9">
+        <v>3981.6</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1550.4</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1837.16</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1614.39</v>
+      </c>
+      <c r="G51" s="9">
+        <v>212.66</v>
+      </c>
+      <c r="H51" s="9">
+        <v>1423.19</v>
+      </c>
+      <c r="I51" s="9">
+        <v>1264.0</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="12">
+        <v>11883.4</v>
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8">
-        <v>559.76</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="11">
-        <v>559.76</v>
-      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8">
-        <v>664.0</v>
-      </c>
+      <c r="C53" s="8">
+        <v>194.9</v>
+      </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="F53" s="8">
+        <v>4033.96</v>
+      </c>
+      <c r="G53" s="8">
+        <v>161.0</v>
+      </c>
+      <c r="H53" s="8">
+        <v>1125.34</v>
+      </c>
+      <c r="I53" s="8">
+        <v>1078.41</v>
+      </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="5"/>
       <c r="N53" s="11">
-        <v>664.0</v>
+        <v>6593.61</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -2289,13 +2330,17 @@
         <v>63</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="C54" s="8">
+        <v>644.05</v>
+      </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="G54" s="8">
+        <v>981.99</v>
+      </c>
       <c r="H54" s="8">
-        <v>588.0</v>
+        <v>505.72</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -2303,7 +2348,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="5"/>
       <c r="N54" s="11">
-        <v>588.0</v>
+        <v>2131.76</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -2311,32 +2356,32 @@
         <v>64</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="8">
-        <v>144.8</v>
-      </c>
+      <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="I55" s="8">
+        <v>1134.9</v>
+      </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="5"/>
       <c r="N55" s="11">
-        <v>144.8</v>
+        <v>1134.9</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="8">
+        <v>219.8</v>
+      </c>
       <c r="C56" s="8"/>
-      <c r="D56" s="8">
-        <v>988.5</v>
-      </c>
+      <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -2347,7 +2392,7 @@
       <c r="L56" s="8"/>
       <c r="M56" s="5"/>
       <c r="N56" s="11">
-        <v>988.5</v>
+        <v>219.8</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -2356,7 +2401,7 @@
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8">
-        <v>411.88</v>
+        <v>559.76</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2369,7 +2414,7 @@
       <c r="L57" s="8"/>
       <c r="M57" s="5"/>
       <c r="N57" s="11">
-        <v>411.88</v>
+        <v>559.76</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -2377,15 +2422,11 @@
         <v>67</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="8">
-        <v>680.0</v>
-      </c>
+      <c r="C58" s="8"/>
       <c r="D58" s="8">
-        <v>1305.0</v>
-      </c>
-      <c r="E58" s="8">
-        <v>1970.0</v>
-      </c>
+        <v>664.0</v>
+      </c>
+      <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -2395,7 +2436,7 @@
       <c r="L58" s="8"/>
       <c r="M58" s="5"/>
       <c r="N58" s="11">
-        <v>3955.0</v>
+        <v>664.0</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -2409,7 +2450,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8">
-        <v>408.0</v>
+        <v>588.0</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2417,7 +2458,7 @@
       <c r="L59" s="8"/>
       <c r="M59" s="5"/>
       <c r="N59" s="11">
-        <v>408.0</v>
+        <v>588.0</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -2426,11 +2467,9 @@
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8">
-        <v>1520.0</v>
-      </c>
-      <c r="D60" s="8">
-        <v>2495.0</v>
-      </c>
+        <v>144.8</v>
+      </c>
+      <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -2441,7 +2480,7 @@
       <c r="L60" s="8"/>
       <c r="M60" s="5"/>
       <c r="N60" s="11">
-        <v>4015.0</v>
+        <v>144.8</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -2450,14 +2489,12 @@
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="8">
+        <v>988.5</v>
+      </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="8">
-        <v>560.0</v>
-      </c>
-      <c r="G61" s="8">
-        <v>560.0</v>
-      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2465,35 +2502,29 @@
       <c r="L61" s="8"/>
       <c r="M61" s="5"/>
       <c r="N61" s="11">
-        <v>1120.0</v>
+        <v>988.5</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="8">
-        <v>1500.0</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8">
-        <v>1500.0</v>
-      </c>
-      <c r="E62" s="8">
-        <v>1500.0</v>
-      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8">
+        <v>411.88</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="8">
-        <v>1500.0</v>
-      </c>
+      <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="5"/>
       <c r="N62" s="11">
-        <v>6000.0</v>
+        <v>411.88</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -2502,13 +2533,15 @@
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8">
-        <v>706.66</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8">
-        <v>749.06</v>
-      </c>
+        <v>680.0</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1305.0</v>
+      </c>
+      <c r="E63" s="8">
+        <v>1970.0</v>
+      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -2517,7 +2550,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="5"/>
       <c r="N63" s="11">
-        <v>1455.72</v>
+        <v>3955.0</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -2525,23 +2558,21 @@
         <v>73</v>
       </c>
       <c r="B64" s="8"/>
-      <c r="C64" s="8">
-        <v>124.75</v>
-      </c>
-      <c r="D64" s="8">
-        <v>135.6</v>
-      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="I64" s="8">
+        <v>621.26</v>
+      </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="5"/>
       <c r="N64" s="11">
-        <v>260.35</v>
+        <v>621.26</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -2549,73 +2580,61 @@
         <v>74</v>
       </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="8">
-        <v>816.97</v>
-      </c>
-      <c r="D65" s="8">
-        <v>259.82</v>
-      </c>
-      <c r="E65" s="8">
-        <v>748.33</v>
-      </c>
-      <c r="F65" s="8">
-        <v>1107.36</v>
-      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="H65" s="8">
+        <v>408.0</v>
+      </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="5"/>
       <c r="N65" s="11">
-        <v>2932.48</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="5" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8">
-        <v>715.36</v>
+        <v>1520.0</v>
       </c>
       <c r="D66" s="8">
-        <v>463.06</v>
+        <v>2495.0</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="8">
-        <v>163.05</v>
-      </c>
-      <c r="G66" s="8">
-        <v>576.88</v>
-      </c>
-      <c r="H66" s="8">
-        <v>130.56</v>
-      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="5"/>
       <c r="N66" s="11">
-        <v>2048.91</v>
+        <v>4015.0</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67" s="8"/>
-      <c r="C67" s="8">
-        <v>254.89</v>
-      </c>
-      <c r="D67" s="8">
-        <v>668.79</v>
-      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="F67" s="8">
+        <v>560.0</v>
+      </c>
+      <c r="G67" s="8">
+        <v>560.0</v>
+      </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -2623,66 +2642,74 @@
       <c r="L67" s="8"/>
       <c r="M67" s="5"/>
       <c r="N67" s="11">
-        <v>923.68</v>
+        <v>1120.0</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="B68" s="8">
+        <v>1500.0</v>
+      </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8">
-        <v>777.0</v>
-      </c>
-      <c r="E68" s="8"/>
+        <v>1500.0</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1500.0</v>
+      </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
+      <c r="H68" s="8">
+        <v>1500.0</v>
+      </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="5"/>
       <c r="N68" s="11">
-        <v>777.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8">
-        <v>1310.2</v>
+        <v>706.66</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8">
-        <v>760.0</v>
-      </c>
-      <c r="G69" s="8">
-        <v>3530.41</v>
-      </c>
+        <v>749.06</v>
+      </c>
+      <c r="G69" s="8"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="I69" s="8">
+        <v>749.06</v>
+      </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="5"/>
       <c r="N69" s="11">
-        <v>5600.61</v>
+        <v>2204.78</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8">
-        <v>475.9</v>
-      </c>
-      <c r="D70" s="8"/>
+        <v>124.75</v>
+      </c>
+      <c r="D70" s="8">
+        <v>135.6</v>
+      </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -2693,456 +2720,482 @@
       <c r="L70" s="8"/>
       <c r="M70" s="5"/>
       <c r="N70" s="11">
-        <v>475.9</v>
+        <v>260.35</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8">
-        <v>1694.42</v>
-      </c>
-      <c r="D71" s="8"/>
+        <v>816.97</v>
+      </c>
+      <c r="D71" s="8">
+        <v>259.82</v>
+      </c>
       <c r="E71" s="8">
-        <v>1694.42</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8">
-        <v>1822.62</v>
-      </c>
-      <c r="H71" s="8">
-        <v>1691.86</v>
-      </c>
-      <c r="I71" s="8"/>
+        <v>748.33</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1107.36</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8">
+        <v>34.5</v>
+      </c>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="5"/>
       <c r="N71" s="11">
-        <v>6903.32</v>
+        <v>2966.98</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="8">
-        <v>450.0</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B72" s="8"/>
       <c r="C72" s="8">
-        <v>250.0</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8">
-        <v>792.0</v>
-      </c>
+        <v>715.36</v>
+      </c>
+      <c r="D72" s="8">
+        <v>463.06</v>
+      </c>
+      <c r="E72" s="8"/>
       <c r="F72" s="8">
-        <v>638.0</v>
+        <v>163.05</v>
       </c>
       <c r="G72" s="8">
-        <v>634.0</v>
-      </c>
-      <c r="H72" s="8"/>
+        <v>576.88</v>
+      </c>
+      <c r="H72" s="8">
+        <v>130.56</v>
+      </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="5"/>
       <c r="N72" s="11">
-        <v>2764.0</v>
+        <v>2048.91</v>
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="9">
-        <v>2169.8</v>
-      </c>
-      <c r="C73" s="9">
-        <v>10504.54</v>
-      </c>
-      <c r="D73" s="9">
-        <v>9256.77</v>
-      </c>
-      <c r="E73" s="9">
-        <v>6704.75</v>
-      </c>
-      <c r="F73" s="9">
-        <v>8011.43</v>
-      </c>
-      <c r="G73" s="9">
-        <v>8266.9</v>
-      </c>
-      <c r="H73" s="9">
-        <v>5949.48</v>
-      </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="12">
-        <v>50863.67</v>
+      <c r="A73" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8">
+        <v>254.89</v>
+      </c>
+      <c r="D73" s="8">
+        <v>668.79</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="11">
+        <v>923.68</v>
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
+      <c r="A74" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8">
+        <v>777.0</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="11">
+        <v>777.0</v>
+      </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="8">
-        <v>385.33</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B75" s="8"/>
       <c r="C75" s="8">
-        <v>450.4</v>
-      </c>
-      <c r="D75" s="8">
-        <v>794.42</v>
-      </c>
-      <c r="E75" s="8">
-        <v>1162.25</v>
-      </c>
+        <v>1310.2</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="8">
-        <v>517.53</v>
+        <v>760.0</v>
       </c>
       <c r="G75" s="8">
-        <v>899.13</v>
+        <v>3530.41</v>
       </c>
       <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="I75" s="8">
+        <v>918.6</v>
+      </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="5"/>
       <c r="N75" s="11">
-        <v>4209.06</v>
+        <v>6519.21</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="C76" s="8">
+        <v>475.9</v>
+      </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="8">
-        <v>600.0</v>
-      </c>
-      <c r="F76" s="8">
-        <v>750.9</v>
-      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="8">
-        <v>174.3</v>
-      </c>
+      <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="5"/>
       <c r="N76" s="11">
-        <v>1525.2</v>
+        <v>475.9</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="C77" s="8">
+        <v>1694.42</v>
+      </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="E77" s="8">
+        <v>1694.42</v>
+      </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8">
-        <v>65.98</v>
-      </c>
-      <c r="H77" s="8"/>
+        <v>1822.62</v>
+      </c>
+      <c r="H77" s="8">
+        <v>1691.86</v>
+      </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="5"/>
       <c r="N77" s="11">
-        <v>65.98</v>
+        <v>6903.32</v>
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" s="9">
+      <c r="A78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="8">
+        <v>450.0</v>
+      </c>
+      <c r="C78" s="8">
+        <v>250.0</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8">
+        <v>792.0</v>
+      </c>
+      <c r="F78" s="8">
+        <v>638.0</v>
+      </c>
+      <c r="G78" s="8">
+        <v>634.0</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8">
+        <v>900.0</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="11">
+        <v>3664.0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="9">
+        <v>2169.8</v>
+      </c>
+      <c r="C79" s="9">
+        <v>10504.54</v>
+      </c>
+      <c r="D79" s="9">
+        <v>9256.77</v>
+      </c>
+      <c r="E79" s="9">
+        <v>6704.75</v>
+      </c>
+      <c r="F79" s="9">
+        <v>8011.43</v>
+      </c>
+      <c r="G79" s="9">
+        <v>8266.9</v>
+      </c>
+      <c r="H79" s="9">
+        <v>5949.48</v>
+      </c>
+      <c r="I79" s="9">
+        <v>5436.73</v>
+      </c>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="12">
+        <v>56300.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="8">
         <v>385.33</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C81" s="8">
         <v>450.4</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D81" s="8">
         <v>794.42</v>
       </c>
-      <c r="E78" s="9">
-        <v>1762.25</v>
-      </c>
-      <c r="F78" s="9">
-        <v>1268.43</v>
-      </c>
-      <c r="G78" s="9">
-        <v>965.11</v>
-      </c>
-      <c r="H78" s="9">
-        <v>174.3</v>
-      </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="12">
-        <v>5800.24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8">
-        <v>2500.0</v>
-      </c>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="11">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9">
-        <v>2500.0</v>
-      </c>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="12">
-        <v>2500.0</v>
+      <c r="E81" s="8">
+        <v>1162.25</v>
+      </c>
+      <c r="F81" s="8">
+        <v>517.53</v>
+      </c>
+      <c r="G81" s="8">
+        <v>899.13</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="11">
+        <v>4209.06</v>
       </c>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8">
+        <v>600.0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>750.9</v>
+      </c>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8">
+        <v>850.3</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="11">
+        <v>2201.2</v>
+      </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="5" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B83" s="8"/>
-      <c r="C83" s="8">
-        <v>97.47</v>
-      </c>
+      <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="8">
+        <v>470.16</v>
+      </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="5"/>
       <c r="N83" s="11">
-        <v>97.47</v>
+        <v>470.16</v>
       </c>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9">
-        <v>97.47</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="12">
-        <v>97.47</v>
+      <c r="A84" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8">
+        <v>65.98</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="11">
+        <v>65.98</v>
       </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="10">
-        <v>19523.78</v>
-      </c>
-      <c r="C85" s="10">
-        <v>61101.94</v>
-      </c>
-      <c r="D85" s="10">
-        <v>27753.35</v>
-      </c>
-      <c r="E85" s="10">
-        <v>48907.79</v>
-      </c>
-      <c r="F85" s="10">
-        <v>20701.88</v>
-      </c>
-      <c r="G85" s="10">
-        <v>47571.47</v>
-      </c>
-      <c r="H85" s="10">
-        <v>17468.15</v>
-      </c>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="13">
-        <v>243028.36</v>
-      </c>
+      <c r="A85" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="9">
+        <v>385.33</v>
+      </c>
+      <c r="C85" s="9">
+        <v>450.4</v>
+      </c>
+      <c r="D85" s="9">
+        <v>794.42</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1762.25</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1268.43</v>
+      </c>
+      <c r="G85" s="9">
+        <v>965.11</v>
+      </c>
+      <c r="H85" s="9">
+        <v>850.3</v>
+      </c>
+      <c r="I85" s="9">
+        <v>470.16</v>
+      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="12">
+        <v>6946.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8">
+        <v>2500.0</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
       <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
+      <c r="N87" s="11">
+        <v>2500.0</v>
+      </c>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>90</v>
+      <c r="A88" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9">
+        <v>2500.0</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="12">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="4" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3160,11 +3213,11 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="5" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8">
-        <v>424.28</v>
+        <v>97.47</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -3175,162 +3228,134 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
+      <c r="M90" s="5"/>
       <c r="N90" s="11">
-        <v>424.28</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8">
-        <v>343.42</v>
-      </c>
-      <c r="D91" s="8">
-        <v>1425.45</v>
-      </c>
-      <c r="E91" s="8">
-        <v>271.69</v>
-      </c>
-      <c r="F91" s="8">
-        <v>542.44</v>
-      </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="11">
-        <v>2583.0</v>
+      <c r="A91" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9">
+        <v>97.47</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="12">
+        <v>97.47</v>
       </c>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="8">
-        <v>1100.94</v>
-      </c>
-      <c r="C92" s="8">
-        <v>332.32</v>
-      </c>
-      <c r="D92" s="8">
-        <v>1593.81</v>
-      </c>
-      <c r="E92" s="8">
-        <v>822.4</v>
-      </c>
-      <c r="F92" s="8">
-        <v>1125.03</v>
-      </c>
-      <c r="G92" s="8">
-        <v>1170.44</v>
-      </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="11">
-        <v>6144.94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="8">
-        <v>240.0</v>
-      </c>
-      <c r="C93" s="8">
-        <v>600.0</v>
-      </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="11">
-        <v>840.0</v>
+      <c r="A92" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="10">
+        <v>19523.78</v>
+      </c>
+      <c r="C92" s="10">
+        <v>61101.94</v>
+      </c>
+      <c r="D92" s="10">
+        <v>27753.35</v>
+      </c>
+      <c r="E92" s="10">
+        <v>48907.79</v>
+      </c>
+      <c r="F92" s="10">
+        <v>20701.88</v>
+      </c>
+      <c r="G92" s="10">
+        <v>47571.47</v>
+      </c>
+      <c r="H92" s="10">
+        <v>61077.29</v>
+      </c>
+      <c r="I92" s="10">
+        <v>10122.76</v>
+      </c>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="13">
+        <v>296760.26</v>
       </c>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" s="8">
-        <v>1961.53</v>
-      </c>
-      <c r="C94" s="8">
-        <v>3662.32</v>
-      </c>
-      <c r="D94" s="8">
-        <v>1250.79</v>
-      </c>
-      <c r="E94" s="8">
-        <v>4163.06</v>
-      </c>
-      <c r="F94" s="8">
-        <v>5135.82</v>
-      </c>
-      <c r="G94" s="8">
-        <v>2052.29</v>
-      </c>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="11">
-        <v>18225.81</v>
-      </c>
+      <c r="A94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="9">
-        <v>3302.47</v>
-      </c>
-      <c r="C95" s="9">
-        <v>5362.34</v>
-      </c>
-      <c r="D95" s="9">
-        <v>4270.05</v>
-      </c>
-      <c r="E95" s="9">
-        <v>5257.15</v>
-      </c>
-      <c r="F95" s="9">
-        <v>6803.29</v>
-      </c>
-      <c r="G95" s="9">
-        <v>3222.73</v>
-      </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="12">
-        <v>28218.03</v>
+      <c r="A95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3348,16 +3373,14 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B97" s="8">
-        <v>870.0</v>
-      </c>
-      <c r="C97" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8">
+        <v>424.28</v>
+      </c>
       <c r="D97" s="8"/>
-      <c r="E97" s="8">
-        <v>273.0</v>
-      </c>
+      <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -3367,58 +3390,84 @@
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="11">
-        <v>1143.0</v>
+        <v>424.28</v>
       </c>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" s="9">
-        <v>870.0</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9">
-        <v>273.0</v>
-      </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="12">
-        <v>1143.0</v>
+      <c r="A98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8">
+        <v>343.42</v>
+      </c>
+      <c r="D98" s="8">
+        <v>1425.45</v>
+      </c>
+      <c r="E98" s="8">
+        <v>271.69</v>
+      </c>
+      <c r="F98" s="8">
+        <v>542.44</v>
+      </c>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8">
+        <v>1229.28</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="11">
+        <v>3812.28</v>
       </c>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
+      <c r="A99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="8">
+        <v>1100.94</v>
+      </c>
+      <c r="C99" s="8">
+        <v>332.32</v>
+      </c>
+      <c r="D99" s="8">
+        <v>1593.81</v>
+      </c>
+      <c r="E99" s="8">
+        <v>822.4</v>
+      </c>
+      <c r="F99" s="8">
+        <v>1125.03</v>
+      </c>
+      <c r="G99" s="8">
+        <v>1170.44</v>
+      </c>
+      <c r="H99" s="8">
+        <v>837.61</v>
+      </c>
+      <c r="I99" s="8">
+        <v>143.71</v>
+      </c>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="11">
+        <v>7126.26</v>
+      </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="B100" s="8">
+        <v>240.0</v>
+      </c>
       <c r="C100" s="8">
-        <v>210.0</v>
+        <v>600.0</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -3431,58 +3480,84 @@
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
       <c r="N100" s="11">
-        <v>210.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="B101" s="8">
+        <v>1961.53</v>
+      </c>
+      <c r="C101" s="8">
+        <v>3662.32</v>
+      </c>
+      <c r="D101" s="8">
+        <v>1250.79</v>
+      </c>
+      <c r="E101" s="8">
+        <v>4163.06</v>
+      </c>
+      <c r="F101" s="8">
+        <v>5135.82</v>
+      </c>
       <c r="G101" s="8">
-        <v>68.24</v>
-      </c>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+        <v>2399.18</v>
+      </c>
+      <c r="H101" s="8">
+        <v>3937.06</v>
+      </c>
+      <c r="I101" s="8">
+        <v>5114.5</v>
+      </c>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
       <c r="N101" s="11">
-        <v>68.24</v>
+        <v>27624.26</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B102" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B102" s="9">
+        <v>3302.47</v>
+      </c>
       <c r="C102" s="9">
-        <v>210.0</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
+        <v>5362.34</v>
+      </c>
+      <c r="D102" s="9">
+        <v>4270.05</v>
+      </c>
+      <c r="E102" s="9">
+        <v>5257.15</v>
+      </c>
+      <c r="F102" s="9">
+        <v>6803.29</v>
+      </c>
       <c r="G102" s="9">
-        <v>68.24</v>
-      </c>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+        <v>3569.62</v>
+      </c>
+      <c r="H102" s="9">
+        <v>6003.95</v>
+      </c>
+      <c r="I102" s="9">
+        <v>5258.21</v>
+      </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
       <c r="N102" s="12">
-        <v>278.24</v>
+        <v>39827.08</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3500,51 +3575,55 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="B104" s="8">
+        <v>870.0</v>
+      </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="E104" s="8">
+        <v>273.0</v>
+      </c>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="8">
-        <v>809.97</v>
-      </c>
+      <c r="H104" s="8"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
       <c r="N104" s="11">
-        <v>809.97</v>
+        <v>1143.0</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="B105" s="9">
+        <v>870.0</v>
+      </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
+      <c r="E105" s="9">
+        <v>273.0</v>
+      </c>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="9">
-        <v>809.97</v>
-      </c>
+      <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="12">
-        <v>809.97</v>
+        <v>1143.0</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3562,38 +3641,40 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="5" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8">
-        <v>2146.31</v>
+        <v>210.0</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
+      <c r="I107" s="8">
+        <v>410.0</v>
+      </c>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
       <c r="N107" s="11">
-        <v>2146.31</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B108" s="8"/>
-      <c r="C108" s="8">
-        <v>194.9</v>
-      </c>
+      <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="G108" s="8">
+        <v>68.24</v>
+      </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -3601,34 +3682,38 @@
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
       <c r="N108" s="11">
-        <v>194.9</v>
+        <v>68.24</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="6" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9">
-        <v>2341.21</v>
+        <v>210.0</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="G109" s="9">
+        <v>68.24</v>
+      </c>
       <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="I109" s="9">
+        <v>410.0</v>
+      </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
       <c r="N109" s="12">
-        <v>2341.21</v>
+        <v>688.24</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3646,159 +3731,135 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" s="8">
-        <v>723.5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B111" s="8"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="8">
-        <v>1147.77</v>
-      </c>
-      <c r="E111" s="8">
-        <v>161.15</v>
-      </c>
-      <c r="F111" s="8">
-        <v>965.41</v>
-      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
+      <c r="H111" s="8">
+        <v>809.97</v>
+      </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
       <c r="N111" s="11">
-        <v>2997.83</v>
+        <v>809.97</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B112" s="9">
-        <v>723.5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="9">
-        <v>1147.77</v>
-      </c>
-      <c r="E112" s="9">
-        <v>161.15</v>
-      </c>
-      <c r="F112" s="9">
-        <v>965.41</v>
-      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
+      <c r="H112" s="9">
+        <v>809.97</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="12">
-        <v>2997.83</v>
+        <v>809.97</v>
       </c>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113" s="10">
-        <v>4895.97</v>
-      </c>
-      <c r="C113" s="10">
-        <v>7913.55</v>
-      </c>
-      <c r="D113" s="10">
-        <v>5417.82</v>
-      </c>
-      <c r="E113" s="10">
-        <v>5691.3</v>
-      </c>
-      <c r="F113" s="10">
-        <v>7768.7</v>
-      </c>
-      <c r="G113" s="10">
-        <v>3290.97</v>
-      </c>
-      <c r="H113" s="10">
-        <v>809.97</v>
-      </c>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="13">
-        <v>35788.28</v>
+      <c r="A113" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8">
+        <v>2146.31</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="11">
+        <v>2146.31</v>
       </c>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
+      <c r="A115" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8">
+        <v>194.9</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="11">
+        <v>194.9</v>
+      </c>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>90</v>
+      <c r="A116" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9">
+        <v>2341.21</v>
+      </c>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="12">
+        <v>2341.21</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="4" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3816,174 +3877,192 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="B118" s="8">
+        <v>723.5</v>
+      </c>
       <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8">
-        <v>28.72</v>
-      </c>
-      <c r="H118" s="8"/>
+      <c r="D118" s="8">
+        <v>1147.77</v>
+      </c>
+      <c r="E118" s="8">
+        <v>161.15</v>
+      </c>
+      <c r="F118" s="8">
+        <v>965.41</v>
+      </c>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8">
+        <v>1050.06</v>
+      </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
       <c r="N118" s="11">
-        <v>28.72</v>
+        <v>4047.89</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="9"/>
+        <v>91</v>
+      </c>
+      <c r="B119" s="9">
+        <v>723.5</v>
+      </c>
       <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9">
-        <v>28.72</v>
-      </c>
-      <c r="H119" s="9"/>
+      <c r="D119" s="9">
+        <v>1147.77</v>
+      </c>
+      <c r="E119" s="9">
+        <v>161.15</v>
+      </c>
+      <c r="F119" s="9">
+        <v>965.41</v>
+      </c>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9">
+        <v>1050.06</v>
+      </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
       <c r="N119" s="12">
-        <v>28.72</v>
+        <v>4047.89</v>
       </c>
     </row>
     <row r="120" spans="1:16">
-      <c r="A120" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-    </row>
-    <row r="121" spans="1:16">
-      <c r="A121" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8">
-        <v>1487.76</v>
-      </c>
-      <c r="E121" s="8">
-        <v>932.02</v>
-      </c>
-      <c r="F121" s="8">
-        <v>669.25</v>
-      </c>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8">
-        <v>595.3</v>
-      </c>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="11">
-        <v>3684.33</v>
+      <c r="A120" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" s="10">
+        <v>4895.97</v>
+      </c>
+      <c r="C120" s="10">
+        <v>7913.55</v>
+      </c>
+      <c r="D120" s="10">
+        <v>5417.82</v>
+      </c>
+      <c r="E120" s="10">
+        <v>5691.3</v>
+      </c>
+      <c r="F120" s="10">
+        <v>7768.7</v>
+      </c>
+      <c r="G120" s="10">
+        <v>3637.86</v>
+      </c>
+      <c r="H120" s="10">
+        <v>7863.98</v>
+      </c>
+      <c r="I120" s="10">
+        <v>5668.21</v>
+      </c>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="13">
+        <v>48857.39</v>
       </c>
     </row>
     <row r="122" spans="1:16">
-      <c r="A122" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9">
-        <v>1487.76</v>
-      </c>
-      <c r="E122" s="9">
-        <v>932.02</v>
-      </c>
-      <c r="F122" s="9">
-        <v>669.25</v>
-      </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9">
-        <v>595.3</v>
-      </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="12">
-        <v>3684.33</v>
-      </c>
+      <c r="A122" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
+      <c r="A123" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="124" spans="1:16">
-      <c r="A124" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8">
-        <v>843.7</v>
-      </c>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="11">
-        <v>843.7</v>
-      </c>
+      <c r="A124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="5" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B125" s="8"/>
-      <c r="C125" s="8">
-        <v>210.0</v>
-      </c>
+      <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
+      <c r="G125" s="8">
+        <v>28.72</v>
+      </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
@@ -3991,23 +4070,21 @@
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
       <c r="N125" s="11">
-        <v>210.0</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="6" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B126" s="9"/>
-      <c r="C126" s="9">
-        <v>210.0</v>
-      </c>
+      <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="9">
-        <v>843.7</v>
-      </c>
-      <c r="G126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9">
+        <v>28.72</v>
+      </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -4015,12 +4092,12 @@
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
       <c r="N126" s="12">
-        <v>1053.7</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="4" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4038,216 +4115,208 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B128" s="8">
-        <v>597.55</v>
-      </c>
-      <c r="C128" s="8">
-        <v>513.23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
       <c r="D128" s="8">
-        <v>299.45</v>
-      </c>
-      <c r="E128" s="8"/>
+        <v>1487.76</v>
+      </c>
+      <c r="E128" s="8">
+        <v>932.02</v>
+      </c>
       <c r="F128" s="8">
-        <v>760.7</v>
-      </c>
-      <c r="G128" s="8">
-        <v>278.63</v>
-      </c>
-      <c r="H128" s="8"/>
+        <v>669.25</v>
+      </c>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8">
+        <v>1170.14</v>
+      </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="11">
-        <v>2449.56</v>
+        <v>4259.17</v>
       </c>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B129" s="9">
-        <v>597.55</v>
-      </c>
-      <c r="C129" s="9">
-        <v>513.23</v>
-      </c>
-      <c r="D129" s="9">
-        <v>299.45</v>
-      </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9">
-        <v>760.7</v>
-      </c>
-      <c r="G129" s="9">
-        <v>278.63</v>
-      </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="12">
-        <v>2449.56</v>
+      <c r="A129" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8">
+        <v>362.0</v>
+      </c>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="11">
+        <v>362.0</v>
       </c>
     </row>
     <row r="130" spans="1:16">
-      <c r="A130" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B130" s="10">
-        <v>597.55</v>
-      </c>
-      <c r="C130" s="10">
-        <v>723.23</v>
-      </c>
-      <c r="D130" s="10">
-        <v>1787.21</v>
-      </c>
-      <c r="E130" s="10">
+      <c r="A130" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9">
+        <v>1487.76</v>
+      </c>
+      <c r="E130" s="9">
         <v>932.02</v>
       </c>
-      <c r="F130" s="10">
-        <v>2273.65</v>
-      </c>
-      <c r="G130" s="10">
-        <v>307.35</v>
-      </c>
-      <c r="H130" s="10">
-        <v>595.3</v>
-      </c>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="13">
-        <v>7216.31</v>
-      </c>
+      <c r="F130" s="9">
+        <v>669.25</v>
+      </c>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9">
+        <v>1170.14</v>
+      </c>
+      <c r="I130" s="9">
+        <v>362.0</v>
+      </c>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="12">
+        <v>4621.17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
+      <c r="A132" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8">
+        <v>843.7</v>
+      </c>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="11">
+        <v>843.7</v>
+      </c>
     </row>
     <row r="133" spans="1:16">
-      <c r="A133" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F133" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G133" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H133" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J133" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K133" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L133" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M133" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="N133" s="17" t="s">
-        <v>90</v>
+      <c r="A133" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8">
+        <v>210.0</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="11">
+        <v>210.0</v>
       </c>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
+      <c r="A134" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9">
+        <v>210.0</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9">
+        <v>843.7</v>
+      </c>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="12">
+        <v>1053.7</v>
+      </c>
     </row>
     <row r="135" spans="1:16">
-      <c r="A135" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8">
-        <v>1640.0</v>
-      </c>
-      <c r="E135" s="8">
-        <v>2000.0</v>
-      </c>
-      <c r="F135" s="8">
-        <v>2000.0</v>
-      </c>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="11">
-        <v>5640.0</v>
-      </c>
+      <c r="A135" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B136" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="B136" s="8">
+        <v>597.55</v>
+      </c>
       <c r="C136" s="8">
-        <v>7260.47</v>
-      </c>
-      <c r="D136" s="8"/>
+        <v>513.23</v>
+      </c>
+      <c r="D136" s="8">
+        <v>299.45</v>
+      </c>
       <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
+      <c r="F136" s="8">
+        <v>760.7</v>
+      </c>
+      <c r="G136" s="8">
+        <v>278.63</v>
+      </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
@@ -4255,198 +4324,190 @@
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
       <c r="N136" s="11">
-        <v>7260.47</v>
+        <v>2449.56</v>
       </c>
     </row>
     <row r="137" spans="1:16">
-      <c r="A137" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8">
-        <v>7464.86</v>
-      </c>
-      <c r="D137" s="8">
-        <v>717.15</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8">
-        <v>6551.2</v>
-      </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="11">
-        <v>14733.21</v>
+      <c r="A137" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B137" s="9">
+        <v>597.55</v>
+      </c>
+      <c r="C137" s="9">
+        <v>513.23</v>
+      </c>
+      <c r="D137" s="9">
+        <v>299.45</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9">
+        <v>760.7</v>
+      </c>
+      <c r="G137" s="9">
+        <v>278.63</v>
+      </c>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="12">
+        <v>2449.56</v>
       </c>
     </row>
     <row r="138" spans="1:16">
-      <c r="A138" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B138" s="8">
-        <v>12480.45</v>
-      </c>
-      <c r="C138" s="8">
-        <v>3417.13</v>
-      </c>
-      <c r="D138" s="8">
-        <v>13535.85</v>
-      </c>
-      <c r="E138" s="8">
-        <v>5276.95</v>
-      </c>
-      <c r="F138" s="8">
-        <v>22118.24</v>
-      </c>
-      <c r="G138" s="8">
-        <v>7957.18</v>
-      </c>
-      <c r="H138" s="8">
-        <v>188.09</v>
-      </c>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
-      <c r="N138" s="11">
-        <v>64973.89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
-      <c r="A139" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8">
-        <v>2750.0</v>
-      </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="11">
-        <v>2750.0</v>
+      <c r="A138" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" s="10">
+        <v>597.55</v>
+      </c>
+      <c r="C138" s="10">
+        <v>723.23</v>
+      </c>
+      <c r="D138" s="10">
+        <v>1787.21</v>
+      </c>
+      <c r="E138" s="10">
+        <v>932.02</v>
+      </c>
+      <c r="F138" s="10">
+        <v>2273.65</v>
+      </c>
+      <c r="G138" s="10">
+        <v>307.35</v>
+      </c>
+      <c r="H138" s="10">
+        <v>1170.14</v>
+      </c>
+      <c r="I138" s="10">
+        <v>362.0</v>
+      </c>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="13">
+        <v>8153.15</v>
       </c>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8">
-        <v>1664.0</v>
-      </c>
-      <c r="H140" s="8">
-        <v>4986.6</v>
-      </c>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="11">
-        <v>6650.6</v>
-      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:16">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J141" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K141" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L141" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M141" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N141" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8">
-        <v>2573.86</v>
-      </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8">
-        <v>1368.24</v>
-      </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="11">
-        <v>3942.1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16">
-      <c r="A142" s="6" t="s">
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B142" s="9">
-        <v>12480.45</v>
-      </c>
-      <c r="C142" s="9">
-        <v>23466.32</v>
-      </c>
-      <c r="D142" s="9">
-        <v>15893.0</v>
-      </c>
-      <c r="E142" s="9">
-        <v>7276.95</v>
-      </c>
-      <c r="F142" s="9">
-        <v>32037.68</v>
-      </c>
-      <c r="G142" s="9">
-        <v>9621.18</v>
-      </c>
-      <c r="H142" s="9">
-        <v>5174.69</v>
-      </c>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="12">
-        <v>105950.27</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8">
+        <v>1640.0</v>
+      </c>
+      <c r="E143" s="8">
+        <v>2000.0</v>
+      </c>
+      <c r="F143" s="8">
+        <v>2000.0</v>
+      </c>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8">
+        <v>390.0</v>
+      </c>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="11">
+        <v>6030.0</v>
+      </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="8">
-        <v>3900.0</v>
+        <v>7260.47</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -4459,62 +4520,84 @@
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
       <c r="N144" s="11">
-        <v>3900.0</v>
+        <v>7260.47</v>
       </c>
     </row>
     <row r="145" spans="1:16">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8">
+        <v>7464.86</v>
+      </c>
+      <c r="D145" s="8">
+        <v>717.15</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8">
+        <v>6551.2</v>
+      </c>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8">
+        <v>6469.6</v>
+      </c>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="11">
+        <v>21202.81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9">
-        <v>3900.0</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="12">
-        <v>3900.0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
-      <c r="A146" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
+      <c r="B146" s="8">
+        <v>12480.45</v>
+      </c>
+      <c r="C146" s="8">
+        <v>3417.13</v>
+      </c>
+      <c r="D146" s="8">
+        <v>13535.85</v>
+      </c>
+      <c r="E146" s="8">
+        <v>5276.95</v>
+      </c>
+      <c r="F146" s="8">
+        <v>22118.24</v>
+      </c>
+      <c r="G146" s="8">
+        <v>7957.18</v>
+      </c>
+      <c r="H146" s="8">
+        <v>9008.98</v>
+      </c>
+      <c r="I146" s="8">
+        <v>668.71</v>
+      </c>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="11">
+        <v>74463.49</v>
+      </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
+      <c r="C147" s="8">
+        <v>2750.0</v>
+      </c>
       <c r="D147" s="8"/>
-      <c r="E147" s="8">
-        <v>873.0</v>
-      </c>
-      <c r="F147" s="8">
-        <v>594.0</v>
-      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -4523,171 +4606,187 @@
       <c r="L147" s="8"/>
       <c r="M147" s="8"/>
       <c r="N147" s="11">
-        <v>1467.0</v>
+        <v>2750.0</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B148" s="8"/>
-      <c r="C148" s="8">
-        <v>1104.0</v>
-      </c>
+      <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
+      <c r="G148" s="8">
+        <v>1664.0</v>
+      </c>
+      <c r="H148" s="8">
+        <v>4986.6</v>
+      </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
       <c r="N148" s="11">
-        <v>1104.0</v>
+        <v>6650.6</v>
       </c>
     </row>
     <row r="149" spans="1:16">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8">
+        <v>2573.86</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8">
+        <v>1368.24</v>
+      </c>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="11">
+        <v>3942.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9">
-        <v>1104.0</v>
-      </c>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9">
-        <v>873.0</v>
-      </c>
-      <c r="F149" s="9">
-        <v>594.0</v>
-      </c>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
-      <c r="N149" s="12">
-        <v>2571.0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
-      <c r="A150" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
+      <c r="B150" s="9">
+        <v>12480.45</v>
+      </c>
+      <c r="C150" s="9">
+        <v>23466.32</v>
+      </c>
+      <c r="D150" s="9">
+        <v>15893.0</v>
+      </c>
+      <c r="E150" s="9">
+        <v>7276.95</v>
+      </c>
+      <c r="F150" s="9">
+        <v>32037.68</v>
+      </c>
+      <c r="G150" s="9">
+        <v>9621.18</v>
+      </c>
+      <c r="H150" s="9">
+        <v>20855.18</v>
+      </c>
+      <c r="I150" s="9">
+        <v>668.71</v>
+      </c>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="12">
+        <v>122299.47</v>
+      </c>
     </row>
     <row r="151" spans="1:16">
-      <c r="A151" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8">
-        <v>788.31</v>
-      </c>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
-      <c r="N151" s="11">
-        <v>788.31</v>
-      </c>
+      <c r="A151" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
     </row>
     <row r="152" spans="1:16">
-      <c r="A152" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9">
-        <v>788.31</v>
-      </c>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
-      <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
-      <c r="N152" s="12">
-        <v>788.31</v>
+      <c r="A152" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8">
+        <v>3900.0</v>
+      </c>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="11">
+        <v>3900.0</v>
       </c>
     </row>
     <row r="153" spans="1:16">
-      <c r="A153" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
+      <c r="A153" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9">
+        <v>3900.0</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="12">
+        <v>3900.0</v>
+      </c>
     </row>
     <row r="154" spans="1:16">
-      <c r="A154" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8">
-        <v>210.0</v>
-      </c>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="8"/>
-      <c r="N154" s="11">
-        <v>210.0</v>
-      </c>
+      <c r="A154" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="5" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8">
-        <v>340.0</v>
-      </c>
+      <c r="E155" s="8">
+        <v>873.0</v>
+      </c>
+      <c r="F155" s="8">
+        <v>594.0</v>
+      </c>
+      <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
@@ -4695,132 +4794,122 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
       <c r="N155" s="11">
-        <v>340.0</v>
+        <v>1467.0</v>
       </c>
     </row>
     <row r="156" spans="1:16">
-      <c r="A156" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9">
-        <v>210.0</v>
-      </c>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9">
-        <v>340.0</v>
-      </c>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
-      <c r="L156" s="9"/>
-      <c r="M156" s="9"/>
-      <c r="N156" s="12">
-        <v>550.0</v>
+      <c r="A156" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8">
+        <v>1104.0</v>
+      </c>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="8"/>
+      <c r="N156" s="11">
+        <v>1104.0</v>
       </c>
     </row>
     <row r="157" spans="1:16">
-      <c r="A157" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B157" s="10">
-        <v>12480.45</v>
-      </c>
-      <c r="C157" s="10">
-        <v>28680.32</v>
-      </c>
-      <c r="D157" s="10">
-        <v>15893.0</v>
-      </c>
-      <c r="E157" s="10">
-        <v>8149.95</v>
-      </c>
-      <c r="F157" s="10">
-        <v>32631.68</v>
-      </c>
-      <c r="G157" s="10">
-        <v>9961.18</v>
-      </c>
-      <c r="H157" s="10">
-        <v>5963.0</v>
-      </c>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="10"/>
-      <c r="M157" s="10"/>
-      <c r="N157" s="13">
-        <v>113759.58</v>
-      </c>
+      <c r="A157" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9">
+        <v>1104.0</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9">
+        <v>873.0</v>
+      </c>
+      <c r="F157" s="9">
+        <v>594.0</v>
+      </c>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="12">
+        <v>2571.0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
     </row>
     <row r="159" spans="1:16">
-      <c r="A159" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
+      <c r="A159" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8">
+        <v>788.31</v>
+      </c>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="N159" s="11">
+        <v>788.31</v>
+      </c>
     </row>
     <row r="160" spans="1:16">
-      <c r="A160" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G160" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H160" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I160" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J160" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K160" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L160" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M160" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="N160" s="17" t="s">
-        <v>90</v>
+      <c r="A160" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9">
+        <v>788.31</v>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="12">
+        <v>788.31</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="4" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -4838,18 +4927,14 @@
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B162" s="8">
-        <v>154.0</v>
-      </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8">
-        <v>1540.0</v>
-      </c>
-      <c r="E162" s="8">
-        <v>1640.0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8">
+        <v>210.0</v>
+      </c>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
@@ -4859,21 +4944,21 @@
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
       <c r="N162" s="11">
-        <v>3334.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="5" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B163" s="8"/>
-      <c r="C163" s="8">
-        <v>3583.16</v>
-      </c>
+      <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
+      <c r="G163" s="8">
+        <v>340.0</v>
+      </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
@@ -4881,146 +4966,134 @@
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
       <c r="N163" s="11">
-        <v>3583.16</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="164" spans="1:16">
-      <c r="A164" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8">
-        <v>3962.99</v>
-      </c>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8">
-        <v>2718.9</v>
-      </c>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="11">
-        <v>6681.89</v>
+      <c r="A164" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9">
+        <v>210.0</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9">
+        <v>340.0</v>
+      </c>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="12">
+        <v>550.0</v>
       </c>
     </row>
     <row r="165" spans="1:16">
-      <c r="A165" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B165" s="8">
-        <v>3277.6</v>
-      </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8">
-        <v>7771.3</v>
-      </c>
-      <c r="E165" s="8">
-        <v>530.29</v>
-      </c>
-      <c r="F165" s="8">
-        <v>1788.12</v>
-      </c>
-      <c r="G165" s="8">
-        <v>4238.97</v>
-      </c>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="11">
-        <v>17606.28</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
-      <c r="A166" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8">
-        <v>2750.0</v>
-      </c>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8">
-        <v>2200.0</v>
-      </c>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8">
-        <v>5500.0</v>
-      </c>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
-      <c r="M166" s="8"/>
-      <c r="N166" s="11">
-        <v>10450.0</v>
+      <c r="A165" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B165" s="10">
+        <v>12480.45</v>
+      </c>
+      <c r="C165" s="10">
+        <v>28680.32</v>
+      </c>
+      <c r="D165" s="10">
+        <v>15893.0</v>
+      </c>
+      <c r="E165" s="10">
+        <v>8149.95</v>
+      </c>
+      <c r="F165" s="10">
+        <v>32631.68</v>
+      </c>
+      <c r="G165" s="10">
+        <v>9961.18</v>
+      </c>
+      <c r="H165" s="10">
+        <v>21643.49</v>
+      </c>
+      <c r="I165" s="10">
+        <v>668.71</v>
+      </c>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="13">
+        <v>130108.78</v>
       </c>
     </row>
     <row r="167" spans="1:16">
-      <c r="A167" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8">
-        <v>1664.0</v>
-      </c>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="8"/>
-      <c r="M167" s="8"/>
-      <c r="N167" s="11">
-        <v>1664.0</v>
-      </c>
+      <c r="A167" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
     </row>
     <row r="168" spans="1:16">
-      <c r="A168" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B168" s="9">
-        <v>3431.6</v>
-      </c>
-      <c r="C168" s="9">
-        <v>10296.15</v>
-      </c>
-      <c r="D168" s="9">
-        <v>9311.3</v>
-      </c>
-      <c r="E168" s="9">
-        <v>4370.29</v>
-      </c>
-      <c r="F168" s="9">
-        <v>4507.02</v>
-      </c>
-      <c r="G168" s="9">
-        <v>11402.97</v>
-      </c>
-      <c r="H168" s="9"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
-      <c r="M168" s="9"/>
-      <c r="N168" s="12">
-        <v>43319.33</v>
+      <c r="A168" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H168" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J168" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K168" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L168" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M168" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N168" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5038,35 +5111,39 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B170" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="B170" s="8">
+        <v>154.0</v>
+      </c>
       <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
+      <c r="D170" s="8">
+        <v>1540.0</v>
+      </c>
       <c r="E170" s="8">
-        <v>560.0</v>
-      </c>
-      <c r="F170" s="8">
-        <v>840.0</v>
-      </c>
+        <v>1640.0</v>
+      </c>
+      <c r="F170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
+      <c r="H170" s="8">
+        <v>390.0</v>
+      </c>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
       <c r="M170" s="8"/>
       <c r="N170" s="11">
-        <v>1400.0</v>
+        <v>3724.0</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="8">
-        <v>448.0</v>
+        <v>3583.16</v>
       </c>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
@@ -5079,65 +5156,85 @@
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
       <c r="N171" s="11">
-        <v>448.0</v>
+        <v>3583.16</v>
       </c>
     </row>
     <row r="172" spans="1:16">
-      <c r="A172" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9">
-        <v>448.0</v>
-      </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9">
-        <v>560.0</v>
-      </c>
-      <c r="F172" s="9">
-        <v>840.0</v>
-      </c>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
-      <c r="I172" s="9"/>
-      <c r="J172" s="9"/>
-      <c r="K172" s="9"/>
-      <c r="L172" s="9"/>
-      <c r="M172" s="9"/>
-      <c r="N172" s="12">
-        <v>1848.0</v>
+      <c r="A172" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8">
+        <v>3962.99</v>
+      </c>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8">
+        <v>2718.9</v>
+      </c>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8">
+        <v>4729.5</v>
+      </c>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="8"/>
+      <c r="N172" s="11">
+        <v>11411.39</v>
       </c>
     </row>
     <row r="173" spans="1:16">
-      <c r="A173" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
+      <c r="A173" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B173" s="8">
+        <v>3277.6</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8">
+        <v>7771.3</v>
+      </c>
+      <c r="E173" s="8">
+        <v>530.29</v>
+      </c>
+      <c r="F173" s="8">
+        <v>1788.12</v>
+      </c>
+      <c r="G173" s="8">
+        <v>4238.97</v>
+      </c>
+      <c r="H173" s="8">
+        <v>6477.55</v>
+      </c>
+      <c r="I173" s="8">
+        <v>239.74</v>
+      </c>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
+      <c r="L173" s="8"/>
+      <c r="M173" s="8"/>
+      <c r="N173" s="11">
+        <v>24323.57</v>
+      </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="8">
-        <v>210.0</v>
+        <v>2750.0</v>
       </c>
       <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
+      <c r="E174" s="8">
+        <v>2200.0</v>
+      </c>
       <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
+      <c r="G174" s="8">
+        <v>5500.0</v>
+      </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
@@ -5145,176 +5242,184 @@
       <c r="L174" s="8"/>
       <c r="M174" s="8"/>
       <c r="N174" s="11">
-        <v>210.0</v>
+        <v>10450.0</v>
       </c>
     </row>
     <row r="175" spans="1:16">
-      <c r="A175" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9">
-        <v>210.0</v>
-      </c>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
-      <c r="K175" s="9"/>
-      <c r="L175" s="9"/>
-      <c r="M175" s="9"/>
-      <c r="N175" s="12">
-        <v>210.0</v>
+      <c r="A175" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8">
+        <v>1664.0</v>
+      </c>
+      <c r="H175" s="8">
+        <v>3355.6</v>
+      </c>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="8"/>
+      <c r="N175" s="11">
+        <v>5019.6</v>
       </c>
     </row>
     <row r="176" spans="1:16">
-      <c r="A176" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B176" s="10">
+      <c r="A176" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" s="9">
         <v>3431.6</v>
       </c>
-      <c r="C176" s="10">
-        <v>10954.15</v>
-      </c>
-      <c r="D176" s="10">
+      <c r="C176" s="9">
+        <v>10296.15</v>
+      </c>
+      <c r="D176" s="9">
         <v>9311.3</v>
       </c>
-      <c r="E176" s="10">
-        <v>4930.29</v>
-      </c>
-      <c r="F176" s="10">
-        <v>5347.02</v>
-      </c>
-      <c r="G176" s="10">
+      <c r="E176" s="9">
+        <v>4370.29</v>
+      </c>
+      <c r="F176" s="9">
+        <v>4507.02</v>
+      </c>
+      <c r="G176" s="9">
         <v>11402.97</v>
       </c>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
-      <c r="K176" s="10"/>
-      <c r="L176" s="10"/>
-      <c r="M176" s="10"/>
-      <c r="N176" s="13">
-        <v>45377.33</v>
-      </c>
+      <c r="H176" s="9">
+        <v>14952.65</v>
+      </c>
+      <c r="I176" s="9">
+        <v>239.74</v>
+      </c>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="9"/>
+      <c r="N176" s="12">
+        <v>58511.72</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
+      <c r="A177" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
     </row>
     <row r="178" spans="1:16">
-      <c r="A178" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
-      <c r="K178" s="5"/>
-      <c r="L178" s="5"/>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
+      <c r="A178" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8">
+        <v>560.0</v>
+      </c>
+      <c r="F178" s="8">
+        <v>840.0</v>
+      </c>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="8"/>
+      <c r="N178" s="11">
+        <v>1400.0</v>
+      </c>
     </row>
     <row r="179" spans="1:16">
-      <c r="A179" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E179" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F179" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G179" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H179" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I179" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J179" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K179" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L179" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M179" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="N179" s="17" t="s">
-        <v>90</v>
+      <c r="A179" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8">
+        <v>448.0</v>
+      </c>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="8"/>
+      <c r="N179" s="11">
+        <v>448.0</v>
       </c>
     </row>
     <row r="180" spans="1:16">
-      <c r="A180" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="4"/>
+      <c r="A180" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9">
+        <v>448.0</v>
+      </c>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9">
+        <v>560.0</v>
+      </c>
+      <c r="F180" s="9">
+        <v>840.0</v>
+      </c>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="12">
+        <v>1848.0</v>
+      </c>
     </row>
     <row r="181" spans="1:16">
-      <c r="A181" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B181" s="8">
-        <v>770.0</v>
-      </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8">
-        <v>777.0</v>
-      </c>
-      <c r="E181" s="8">
-        <v>820.0</v>
-      </c>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
-      <c r="L181" s="8"/>
-      <c r="M181" s="8"/>
-      <c r="N181" s="11">
-        <v>2367.0</v>
-      </c>
+      <c r="A181" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="5" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="8">
-        <v>3231.55</v>
+        <v>210.0</v>
       </c>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
@@ -5327,148 +5432,132 @@
       <c r="L182" s="8"/>
       <c r="M182" s="8"/>
       <c r="N182" s="11">
-        <v>3231.55</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="183" spans="1:16">
-      <c r="A183" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8">
-        <v>3962.98</v>
-      </c>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8">
-        <v>2732.7</v>
-      </c>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
-      <c r="K183" s="8"/>
-      <c r="L183" s="8"/>
-      <c r="M183" s="8"/>
-      <c r="N183" s="11">
-        <v>6695.68</v>
+      <c r="A183" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9">
+        <v>210.0</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="12">
+        <v>210.0</v>
       </c>
     </row>
     <row r="184" spans="1:16">
-      <c r="A184" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B184" s="8">
-        <v>2092.0</v>
-      </c>
-      <c r="C184" s="8">
-        <v>1405.38</v>
-      </c>
-      <c r="D184" s="8">
-        <v>5851.18</v>
-      </c>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8">
-        <v>2995.22</v>
-      </c>
-      <c r="G184" s="8">
-        <v>3013.78</v>
-      </c>
-      <c r="H184" s="8">
-        <v>342.61</v>
-      </c>
-      <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
-      <c r="L184" s="8"/>
-      <c r="M184" s="8"/>
-      <c r="N184" s="11">
-        <v>15700.17</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16">
-      <c r="A185" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8">
-        <v>1100.0</v>
-      </c>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8">
-        <v>550.0</v>
-      </c>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
-      <c r="L185" s="8"/>
-      <c r="M185" s="8"/>
-      <c r="N185" s="11">
-        <v>1650.0</v>
+      <c r="A184" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B184" s="10">
+        <v>3431.6</v>
+      </c>
+      <c r="C184" s="10">
+        <v>10954.15</v>
+      </c>
+      <c r="D184" s="10">
+        <v>9311.3</v>
+      </c>
+      <c r="E184" s="10">
+        <v>4930.29</v>
+      </c>
+      <c r="F184" s="10">
+        <v>5347.02</v>
+      </c>
+      <c r="G184" s="10">
+        <v>11402.97</v>
+      </c>
+      <c r="H184" s="10">
+        <v>14952.65</v>
+      </c>
+      <c r="I184" s="10">
+        <v>239.74</v>
+      </c>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="10"/>
+      <c r="N184" s="13">
+        <v>60569.72</v>
       </c>
     </row>
     <row r="186" spans="1:16">
-      <c r="A186" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8">
-        <v>3395.8</v>
-      </c>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
-      <c r="K186" s="8"/>
-      <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="11">
-        <v>3395.8</v>
-      </c>
+      <c r="A186" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
     </row>
     <row r="187" spans="1:16">
-      <c r="A187" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B187" s="9">
-        <v>2862.0</v>
-      </c>
-      <c r="C187" s="9">
-        <v>9699.91</v>
-      </c>
-      <c r="D187" s="9">
-        <v>6628.18</v>
-      </c>
-      <c r="E187" s="9">
-        <v>1370.0</v>
-      </c>
-      <c r="F187" s="9">
-        <v>5727.92</v>
-      </c>
-      <c r="G187" s="9">
-        <v>6409.58</v>
-      </c>
-      <c r="H187" s="9">
-        <v>342.61</v>
-      </c>
-      <c r="I187" s="9"/>
-      <c r="J187" s="9"/>
-      <c r="K187" s="9"/>
-      <c r="L187" s="9"/>
-      <c r="M187" s="9"/>
-      <c r="N187" s="12">
-        <v>33040.2</v>
+      <c r="A187" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F187" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H187" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I187" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J187" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K187" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L187" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M187" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N187" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -5486,14 +5575,18 @@
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8">
-        <v>448.0</v>
-      </c>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="B189" s="8">
+        <v>770.0</v>
+      </c>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8">
+        <v>777.0</v>
+      </c>
+      <c r="E189" s="8">
+        <v>820.0</v>
+      </c>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
@@ -5503,77 +5596,101 @@
       <c r="L189" s="8"/>
       <c r="M189" s="8"/>
       <c r="N189" s="11">
-        <v>448.0</v>
+        <v>2367.0</v>
       </c>
     </row>
     <row r="190" spans="1:16">
-      <c r="A190" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9">
-        <v>448.0</v>
-      </c>
-      <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
-      <c r="F190" s="9"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="9"/>
-      <c r="I190" s="9"/>
-      <c r="J190" s="9"/>
-      <c r="K190" s="9"/>
-      <c r="L190" s="9"/>
-      <c r="M190" s="9"/>
-      <c r="N190" s="12">
-        <v>448.0</v>
+      <c r="A190" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8">
+        <v>3231.55</v>
+      </c>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="8"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="8"/>
+      <c r="N190" s="11">
+        <v>3231.55</v>
       </c>
     </row>
     <row r="191" spans="1:16">
-      <c r="A191" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="4"/>
+      <c r="A191" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8">
+        <v>3962.98</v>
+      </c>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8">
+        <v>2732.7</v>
+      </c>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8">
+        <v>1324.3</v>
+      </c>
+      <c r="I191" s="8"/>
+      <c r="J191" s="8"/>
+      <c r="K191" s="8"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="8"/>
+      <c r="N191" s="11">
+        <v>8019.98</v>
+      </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="B192" s="8">
+        <v>2092.0</v>
+      </c>
+      <c r="C192" s="8">
+        <v>1405.38</v>
+      </c>
+      <c r="D192" s="8">
+        <v>5851.18</v>
+      </c>
       <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
+      <c r="F192" s="8">
+        <v>2995.22</v>
+      </c>
+      <c r="G192" s="8">
+        <v>3013.78</v>
+      </c>
+      <c r="H192" s="8">
+        <v>2374.98</v>
+      </c>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
-      <c r="N192" s="11"/>
+      <c r="N192" s="11">
+        <v>17732.54</v>
+      </c>
     </row>
     <row r="193" spans="1:16">
       <c r="A193" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="8">
-        <v>210.0</v>
+        <v>1100.0</v>
       </c>
       <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
+      <c r="E193" s="8">
+        <v>550.0</v>
+      </c>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
@@ -5583,89 +5700,265 @@
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
       <c r="N193" s="11">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="A194" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8">
+        <v>3395.8</v>
+      </c>
+      <c r="H194" s="8"/>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="8"/>
+      <c r="L194" s="8"/>
+      <c r="M194" s="8"/>
+      <c r="N194" s="11">
+        <v>3395.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B195" s="9">
+        <v>2862.0</v>
+      </c>
+      <c r="C195" s="9">
+        <v>9699.91</v>
+      </c>
+      <c r="D195" s="9">
+        <v>6628.18</v>
+      </c>
+      <c r="E195" s="9">
+        <v>1370.0</v>
+      </c>
+      <c r="F195" s="9">
+        <v>5727.92</v>
+      </c>
+      <c r="G195" s="9">
+        <v>6409.58</v>
+      </c>
+      <c r="H195" s="9">
+        <v>3699.28</v>
+      </c>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="9"/>
+      <c r="M195" s="9"/>
+      <c r="N195" s="12">
+        <v>36396.87</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="A196" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="A197" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8">
+        <v>448.0</v>
+      </c>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="8"/>
+      <c r="J197" s="8"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="8"/>
+      <c r="M197" s="8"/>
+      <c r="N197" s="11">
+        <v>448.0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="A198" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9">
+        <v>448.0</v>
+      </c>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
+      <c r="L198" s="9"/>
+      <c r="M198" s="9"/>
+      <c r="N198" s="12">
+        <v>448.0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
+      <c r="A199" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="8"/>
+      <c r="J200" s="8"/>
+      <c r="K200" s="8"/>
+      <c r="L200" s="8"/>
+      <c r="M200" s="8"/>
+      <c r="N200" s="11"/>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8">
         <v>210.0</v>
       </c>
-    </row>
-    <row r="194" spans="1:16">
-      <c r="A194" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9">
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="8"/>
+      <c r="K201" s="8"/>
+      <c r="L201" s="8"/>
+      <c r="M201" s="8"/>
+      <c r="N201" s="11">
         <v>210.0</v>
       </c>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="9"/>
-      <c r="I194" s="9"/>
-      <c r="J194" s="9"/>
-      <c r="K194" s="9"/>
-      <c r="L194" s="9"/>
-      <c r="M194" s="9"/>
-      <c r="N194" s="12">
+    </row>
+    <row r="202" spans="1:16">
+      <c r="A202" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B202" s="9"/>
+      <c r="C202" s="9">
         <v>210.0</v>
       </c>
-    </row>
-    <row r="195" spans="1:16">
-      <c r="A195" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B195" s="10">
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="9"/>
+      <c r="K202" s="9"/>
+      <c r="L202" s="9"/>
+      <c r="M202" s="9"/>
+      <c r="N202" s="12">
+        <v>210.0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B203" s="10">
         <v>2862.0</v>
       </c>
-      <c r="C195" s="10">
+      <c r="C203" s="10">
         <v>10357.91</v>
       </c>
-      <c r="D195" s="10">
+      <c r="D203" s="10">
         <v>6628.18</v>
       </c>
-      <c r="E195" s="10">
+      <c r="E203" s="10">
         <v>1370.0</v>
       </c>
-      <c r="F195" s="10">
+      <c r="F203" s="10">
         <v>5727.92</v>
       </c>
-      <c r="G195" s="10">
+      <c r="G203" s="10">
         <v>6409.58</v>
       </c>
-      <c r="H195" s="10">
-        <v>342.61</v>
-      </c>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
-      <c r="L195" s="10"/>
-      <c r="M195" s="10"/>
-      <c r="N195" s="13">
-        <v>33698.2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16">
-      <c r="A198" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B198" s="18">
-        <v>286032.95</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16">
-      <c r="A199" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B199" s="19">
-        <v>192835.11</v>
+      <c r="H203" s="10">
+        <v>3699.28</v>
+      </c>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="10"/>
+      <c r="N203" s="13">
+        <v>37054.87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B206" s="18">
+        <v>353770.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B207" s="19">
+        <v>227733.37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A87:N87"/>
-    <mergeCell ref="A115:N115"/>
-    <mergeCell ref="A132:N132"/>
-    <mergeCell ref="A159:N159"/>
-    <mergeCell ref="A178:N178"/>
+    <mergeCell ref="A94:N94"/>
+    <mergeCell ref="A122:N122"/>
+    <mergeCell ref="A140:N140"/>
+    <mergeCell ref="A167:N167"/>
+    <mergeCell ref="A186:N186"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5734,7 +6027,7 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="5"/>
@@ -5841,117 +6134,117 @@
     <row r="3" spans="1:37">
       <c r="A3" s="5"/>
       <c r="B3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="T3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="V3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AB3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AE3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AG3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AH3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AI3" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AJ3" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AK3" s="23" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="4"/>
@@ -5992,7 +6285,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22"/>
@@ -6033,7 +6326,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="22"/>
@@ -6074,7 +6367,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
@@ -6115,7 +6408,7 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
@@ -6156,7 +6449,7 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -6197,7 +6490,7 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="22"/>
@@ -6238,7 +6531,7 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="22"/>
@@ -6279,7 +6572,7 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="22"/>
@@ -6320,7 +6613,7 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="22"/>
@@ -6361,7 +6654,7 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="22"/>
@@ -6387,7 +6680,9 @@
       <c r="Q14" s="20"/>
       <c r="R14" s="21"/>
       <c r="S14" s="23"/>
-      <c r="T14" s="20"/>
+      <c r="T14" s="20">
+        <v>50</v>
+      </c>
       <c r="U14" s="21"/>
       <c r="V14" s="23"/>
       <c r="W14" s="20"/>
@@ -6408,7 +6703,7 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="22"/>
@@ -6449,7 +6744,7 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="22"/>
@@ -6490,7 +6785,7 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="22"/>
@@ -6531,7 +6826,7 @@
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="22"/>
@@ -6572,7 +6867,7 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="22"/>
@@ -6613,7 +6908,7 @@
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="22"/>
@@ -6656,7 +6951,7 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="22"/>
@@ -6682,7 +6977,9 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="21"/>
       <c r="S21" s="23"/>
-      <c r="T21" s="20"/>
+      <c r="T21" s="20">
+        <v>40</v>
+      </c>
       <c r="U21" s="21"/>
       <c r="V21" s="23"/>
       <c r="W21" s="20"/>
@@ -6703,7 +7000,7 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="22"/>
@@ -6744,7 +7041,7 @@
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B23" s="20">
         <v>119.0</v>
@@ -6777,11 +7074,13 @@
       <c r="R23" s="21"/>
       <c r="S23" s="23"/>
       <c r="T23" s="20">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="23"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="20">
+        <v>3</v>
+      </c>
       <c r="X23" s="21"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="20"/>
@@ -6799,7 +7098,7 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="22"/>
@@ -6840,7 +7139,7 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
@@ -6883,7 +7182,7 @@
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="22"/>
@@ -6924,7 +7223,7 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="22"/>
@@ -6965,7 +7264,7 @@
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
@@ -7006,7 +7305,7 @@
     </row>
     <row r="29" spans="1:37">
       <c r="A29" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="22"/>
@@ -7047,7 +7346,7 @@
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
@@ -7092,7 +7391,7 @@
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="22"/>
@@ -7133,7 +7432,7 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="22"/>
@@ -7174,7 +7473,7 @@
     </row>
     <row r="33" spans="1:37">
       <c r="A33" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="22"/>
@@ -7219,7 +7518,7 @@
     </row>
     <row r="34" spans="1:37">
       <c r="A34" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
@@ -7260,7 +7559,7 @@
     </row>
     <row r="35" spans="1:37">
       <c r="A35" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="22"/>
@@ -7301,7 +7600,7 @@
     </row>
     <row r="36" spans="1:37">
       <c r="A36" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="22"/>
@@ -7342,7 +7641,7 @@
     </row>
     <row r="37" spans="1:37">
       <c r="A37" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B37" s="27">
         <v>119.0</v>
@@ -7387,7 +7686,7 @@
     </row>
     <row r="38" spans="1:37">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="4"/>
@@ -7428,7 +7727,7 @@
     </row>
     <row r="39" spans="1:37">
       <c r="A39" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="22"/>
@@ -7471,7 +7770,7 @@
     </row>
     <row r="40" spans="1:37">
       <c r="A40" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="6"/>
@@ -7512,7 +7811,7 @@
     </row>
     <row r="41" spans="1:37">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="4"/>
@@ -7553,7 +7852,7 @@
     </row>
     <row r="42" spans="1:37">
       <c r="A42" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="22"/>
@@ -7598,7 +7897,7 @@
     </row>
     <row r="43" spans="1:37">
       <c r="A43" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="22"/>
@@ -7641,7 +7940,7 @@
     </row>
     <row r="44" spans="1:37">
       <c r="A44" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="6"/>
@@ -7684,7 +7983,7 @@
     </row>
     <row r="45" spans="1:37">
       <c r="A45" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="4"/>
@@ -7725,7 +8024,7 @@
     </row>
     <row r="46" spans="1:37">
       <c r="A46" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="22"/>
@@ -7768,7 +8067,7 @@
     </row>
     <row r="47" spans="1:37">
       <c r="A47" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="6"/>
@@ -7809,7 +8108,7 @@
     </row>
     <row r="48" spans="1:37">
       <c r="A48" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="4"/>
@@ -7850,7 +8149,7 @@
     </row>
     <row r="49" spans="1:37">
       <c r="A49" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="22"/>
@@ -7893,7 +8192,7 @@
     </row>
     <row r="50" spans="1:37">
       <c r="A50" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="22"/>
@@ -7936,7 +8235,7 @@
     </row>
     <row r="51" spans="1:37">
       <c r="A51" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="6"/>
@@ -7979,7 +8278,7 @@
     </row>
     <row r="52" spans="1:37">
       <c r="A52" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B52" s="28">
         <v>119.0</v>
@@ -8024,7 +8323,7 @@
     </row>
     <row r="54" spans="1:37">
       <c r="A54" s="16" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="5"/>
@@ -8131,117 +8430,117 @@
     <row r="56" spans="1:37">
       <c r="A56" s="5"/>
       <c r="B56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="R56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="T56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="U56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="V56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="W56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="X56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Y56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Z56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AA56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AB56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AC56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AD56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AE56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AG56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AH56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AI56" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AJ56" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AK56" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:37">
       <c r="A57" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="4"/>
@@ -8282,7 +8581,7 @@
     </row>
     <row r="58" spans="1:37">
       <c r="A58" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="22"/>
@@ -8323,7 +8622,7 @@
     </row>
     <row r="59" spans="1:37">
       <c r="A59" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="22"/>
@@ -8364,7 +8663,7 @@
     </row>
     <row r="60" spans="1:37">
       <c r="A60" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="22"/>
@@ -8405,7 +8704,7 @@
     </row>
     <row r="61" spans="1:37">
       <c r="A61" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="22"/>
@@ -8446,7 +8745,7 @@
     </row>
     <row r="62" spans="1:37">
       <c r="A62" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="22"/>
@@ -8487,7 +8786,7 @@
     </row>
     <row r="63" spans="1:37">
       <c r="A63" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="22"/>
@@ -8528,7 +8827,7 @@
     </row>
     <row r="64" spans="1:37">
       <c r="A64" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="22"/>
@@ -8569,7 +8868,7 @@
     </row>
     <row r="65" spans="1:37">
       <c r="A65" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="22"/>
@@ -8610,7 +8909,7 @@
     </row>
     <row r="66" spans="1:37">
       <c r="A66" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="22"/>
@@ -8651,7 +8950,7 @@
     </row>
     <row r="67" spans="1:37">
       <c r="A67" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B67" s="20">
         <v>20.0</v>
@@ -8677,7 +8976,9 @@
       <c r="Q67" s="20"/>
       <c r="R67" s="21"/>
       <c r="S67" s="23"/>
-      <c r="T67" s="20"/>
+      <c r="T67" s="20">
+        <v>50</v>
+      </c>
       <c r="U67" s="21"/>
       <c r="V67" s="23"/>
       <c r="W67" s="20"/>
@@ -8698,7 +8999,7 @@
     </row>
     <row r="68" spans="1:37">
       <c r="A68" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="22"/>
@@ -8739,7 +9040,7 @@
     </row>
     <row r="69" spans="1:37">
       <c r="A69" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="22"/>
@@ -8780,7 +9081,7 @@
     </row>
     <row r="70" spans="1:37">
       <c r="A70" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="22"/>
@@ -8821,7 +9122,7 @@
     </row>
     <row r="71" spans="1:37">
       <c r="A71" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="22"/>
@@ -8862,7 +9163,7 @@
     </row>
     <row r="72" spans="1:37">
       <c r="A72" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="22"/>
@@ -8903,7 +9204,7 @@
     </row>
     <row r="73" spans="1:37">
       <c r="A73" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="22"/>
@@ -8946,7 +9247,7 @@
     </row>
     <row r="74" spans="1:37">
       <c r="A74" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="22"/>
@@ -8970,7 +9271,9 @@
       <c r="Q74" s="20"/>
       <c r="R74" s="21"/>
       <c r="S74" s="23"/>
-      <c r="T74" s="20"/>
+      <c r="T74" s="20">
+        <v>30</v>
+      </c>
       <c r="U74" s="21"/>
       <c r="V74" s="23"/>
       <c r="W74" s="20"/>
@@ -8991,7 +9294,7 @@
     </row>
     <row r="75" spans="1:37">
       <c r="A75" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="22"/>
@@ -9032,7 +9335,7 @@
     </row>
     <row r="76" spans="1:37">
       <c r="A76" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B76" s="20">
         <v>30.0</v>
@@ -9062,10 +9365,14 @@
       </c>
       <c r="R76" s="21"/>
       <c r="S76" s="23"/>
-      <c r="T76" s="20"/>
+      <c r="T76" s="20">
+        <v>61</v>
+      </c>
       <c r="U76" s="21"/>
       <c r="V76" s="23"/>
-      <c r="W76" s="20"/>
+      <c r="W76" s="20">
+        <v>2</v>
+      </c>
       <c r="X76" s="21"/>
       <c r="Y76" s="23"/>
       <c r="Z76" s="20"/>
@@ -9083,7 +9390,7 @@
     </row>
     <row r="77" spans="1:37">
       <c r="A77" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="22"/>
@@ -9124,7 +9431,7 @@
     </row>
     <row r="78" spans="1:37">
       <c r="A78" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="22"/>
@@ -9171,7 +9478,7 @@
     </row>
     <row r="79" spans="1:37">
       <c r="A79" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="22"/>
@@ -9212,7 +9519,7 @@
     </row>
     <row r="80" spans="1:37">
       <c r="A80" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="22"/>
@@ -9253,7 +9560,7 @@
     </row>
     <row r="81" spans="1:37">
       <c r="A81" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="22"/>
@@ -9294,7 +9601,7 @@
     </row>
     <row r="82" spans="1:37">
       <c r="A82" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="22"/>
@@ -9335,7 +9642,7 @@
     </row>
     <row r="83" spans="1:37">
       <c r="A83" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="22"/>
@@ -9357,7 +9664,9 @@
       </c>
       <c r="R83" s="21"/>
       <c r="S83" s="23"/>
-      <c r="T83" s="20"/>
+      <c r="T83" s="20">
+        <v>40</v>
+      </c>
       <c r="U83" s="21"/>
       <c r="V83" s="23"/>
       <c r="W83" s="20"/>
@@ -9378,7 +9687,7 @@
     </row>
     <row r="84" spans="1:37">
       <c r="A84" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="22"/>
@@ -9419,7 +9728,7 @@
     </row>
     <row r="85" spans="1:37">
       <c r="A85" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="22"/>
@@ -9460,7 +9769,7 @@
     </row>
     <row r="86" spans="1:37">
       <c r="A86" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="22"/>
@@ -9501,7 +9810,7 @@
     </row>
     <row r="87" spans="1:37">
       <c r="A87" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="22"/>
@@ -9542,7 +9851,7 @@
     </row>
     <row r="88" spans="1:37">
       <c r="A88" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="22"/>
@@ -9583,7 +9892,7 @@
     </row>
     <row r="89" spans="1:37">
       <c r="A89" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="22"/>
@@ -9624,7 +9933,7 @@
     </row>
     <row r="90" spans="1:37">
       <c r="A90" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B90" s="27">
         <v>50.0</v>
@@ -9669,7 +9978,7 @@
     </row>
     <row r="91" spans="1:37">
       <c r="A91" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="4"/>
@@ -9710,7 +10019,7 @@
     </row>
     <row r="92" spans="1:37">
       <c r="A92" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="22"/>
@@ -9755,7 +10064,7 @@
     </row>
     <row r="93" spans="1:37">
       <c r="A93" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="22"/>
@@ -9798,7 +10107,7 @@
     </row>
     <row r="94" spans="1:37">
       <c r="A94" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B94" s="27"/>
       <c r="C94" s="6"/>
@@ -9841,7 +10150,7 @@
     </row>
     <row r="95" spans="1:37">
       <c r="A95" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="4"/>
@@ -9882,7 +10191,7 @@
     </row>
     <row r="96" spans="1:37">
       <c r="A96" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="22"/>
@@ -9925,7 +10234,7 @@
     </row>
     <row r="97" spans="1:37">
       <c r="A97" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B97" s="27"/>
       <c r="C97" s="6"/>
@@ -9968,7 +10277,7 @@
     </row>
     <row r="98" spans="1:37">
       <c r="A98" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B98" s="28">
         <v>50.0</v>
@@ -10013,7 +10322,7 @@
     </row>
     <row r="100" spans="1:37">
       <c r="A100" s="16" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B100" s="25"/>
       <c r="C100" s="5"/>
@@ -10120,117 +10429,117 @@
     <row r="102" spans="1:37">
       <c r="A102" s="5"/>
       <c r="B102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="R102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="T102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="U102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="V102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="W102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="X102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Y102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Z102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AA102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AB102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AC102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AD102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AE102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AG102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AH102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AI102" s="25" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AJ102" s="25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AK102" s="25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:37">
       <c r="A103" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="4"/>
@@ -10271,7 +10580,7 @@
     </row>
     <row r="104" spans="1:37">
       <c r="A104" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="22"/>
@@ -10312,7 +10621,7 @@
     </row>
     <row r="105" spans="1:37">
       <c r="A105" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="22"/>
@@ -10353,7 +10662,7 @@
     </row>
     <row r="106" spans="1:37">
       <c r="A106" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="22"/>
@@ -10394,7 +10703,7 @@
     </row>
     <row r="107" spans="1:37">
       <c r="A107" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="22"/>
@@ -10435,7 +10744,7 @@
     </row>
     <row r="108" spans="1:37">
       <c r="A108" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="22"/>
@@ -10476,7 +10785,7 @@
     </row>
     <row r="109" spans="1:37">
       <c r="A109" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="22"/>
@@ -10517,7 +10826,7 @@
     </row>
     <row r="110" spans="1:37">
       <c r="A110" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="22"/>
@@ -10558,7 +10867,7 @@
     </row>
     <row r="111" spans="1:37">
       <c r="A111" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="22"/>
@@ -10599,7 +10908,7 @@
     </row>
     <row r="112" spans="1:37">
       <c r="A112" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="22"/>
@@ -10640,7 +10949,7 @@
     </row>
     <row r="113" spans="1:37">
       <c r="A113" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B113" s="20">
         <v>20.0</v>
@@ -10687,7 +10996,7 @@
     </row>
     <row r="114" spans="1:37">
       <c r="A114" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="22"/>
@@ -10728,7 +11037,7 @@
     </row>
     <row r="115" spans="1:37">
       <c r="A115" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="22"/>
@@ -10769,7 +11078,7 @@
     </row>
     <row r="116" spans="1:37">
       <c r="A116" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="22"/>
@@ -10810,7 +11119,7 @@
     </row>
     <row r="117" spans="1:37">
       <c r="A117" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="22"/>
@@ -10851,7 +11160,7 @@
     </row>
     <row r="118" spans="1:37">
       <c r="A118" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="22"/>
@@ -10892,7 +11201,7 @@
     </row>
     <row r="119" spans="1:37">
       <c r="A119" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="22"/>
@@ -10935,7 +11244,7 @@
     </row>
     <row r="120" spans="1:37">
       <c r="A120" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="22"/>
@@ -10959,7 +11268,9 @@
       <c r="Q120" s="20"/>
       <c r="R120" s="21"/>
       <c r="S120" s="23"/>
-      <c r="T120" s="20"/>
+      <c r="T120" s="20">
+        <v>10</v>
+      </c>
       <c r="U120" s="21"/>
       <c r="V120" s="23"/>
       <c r="W120" s="20"/>
@@ -10980,7 +11291,7 @@
     </row>
     <row r="121" spans="1:37">
       <c r="A121" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="22"/>
@@ -11021,7 +11332,7 @@
     </row>
     <row r="122" spans="1:37">
       <c r="A122" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B122" s="20">
         <v>20.0</v>
@@ -11052,7 +11363,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="23"/>
       <c r="T122" s="20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U122" s="21"/>
       <c r="V122" s="23"/>
@@ -11074,7 +11385,7 @@
     </row>
     <row r="123" spans="1:37">
       <c r="A123" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="22"/>
@@ -11115,7 +11426,7 @@
     </row>
     <row r="124" spans="1:37">
       <c r="A124" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="22"/>
@@ -11160,7 +11471,7 @@
     </row>
     <row r="125" spans="1:37">
       <c r="A125" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="22"/>
@@ -11201,7 +11512,7 @@
     </row>
     <row r="126" spans="1:37">
       <c r="A126" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="22"/>
@@ -11242,7 +11553,7 @@
     </row>
     <row r="127" spans="1:37">
       <c r="A127" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="22"/>
@@ -11283,7 +11594,7 @@
     </row>
     <row r="128" spans="1:37">
       <c r="A128" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="22"/>
@@ -11324,7 +11635,7 @@
     </row>
     <row r="129" spans="1:37">
       <c r="A129" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="22"/>
@@ -11367,7 +11678,7 @@
     </row>
     <row r="130" spans="1:37">
       <c r="A130" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="22"/>
@@ -11408,7 +11719,7 @@
     </row>
     <row r="131" spans="1:37">
       <c r="A131" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="22"/>
@@ -11449,7 +11760,7 @@
     </row>
     <row r="132" spans="1:37">
       <c r="A132" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="22"/>
@@ -11490,7 +11801,7 @@
     </row>
     <row r="133" spans="1:37">
       <c r="A133" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="22"/>
@@ -11531,7 +11842,7 @@
     </row>
     <row r="134" spans="1:37">
       <c r="A134" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="22"/>
@@ -11572,7 +11883,7 @@
     </row>
     <row r="135" spans="1:37">
       <c r="A135" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="22"/>
@@ -11613,7 +11924,7 @@
     </row>
     <row r="136" spans="1:37">
       <c r="A136" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B136" s="27">
         <v>40.0</v>
@@ -11658,7 +11969,7 @@
     </row>
     <row r="137" spans="1:37">
       <c r="A137" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B137" s="26"/>
       <c r="C137" s="4"/>
@@ -11699,7 +12010,7 @@
     </row>
     <row r="138" spans="1:37">
       <c r="A138" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="22"/>
@@ -11742,7 +12053,7 @@
     </row>
     <row r="139" spans="1:37">
       <c r="A139" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B139" s="27"/>
       <c r="C139" s="6"/>
@@ -11785,7 +12096,7 @@
     </row>
     <row r="140" spans="1:37">
       <c r="A140" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B140" s="26"/>
       <c r="C140" s="4"/>
@@ -11826,7 +12137,7 @@
     </row>
     <row r="141" spans="1:37">
       <c r="A141" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="22"/>
@@ -11867,7 +12178,7 @@
     </row>
     <row r="142" spans="1:37">
       <c r="A142" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="22"/>
@@ -11910,7 +12221,7 @@
     </row>
     <row r="143" spans="1:37">
       <c r="A143" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B143" s="27"/>
       <c r="C143" s="6"/>
@@ -11953,7 +12264,7 @@
     </row>
     <row r="144" spans="1:37">
       <c r="A144" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B144" s="28">
         <v>40.0</v>
